--- a/GermanTranslatorTest.xlsx
+++ b/GermanTranslatorTest.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Uni\WS2425\SE1\test\org\hbrs\se1\ws24\tests\uebung1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Uni\WS2425\SE1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0270A65A-0375-4A1A-AF22-5B59253E1B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F86F78-51A0-4D64-92A1-0164DB40CFE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47565" yWindow="4020" windowWidth="28800" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47640" yWindow="3945" windowWidth="28800" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Simple Test Suite" sheetId="8" r:id="rId1"/>
@@ -390,13 +390,13 @@
     <t>Grenzwert pos. Kategorie</t>
   </si>
   <si>
-    <t>gültige Äquivalenzklasse: 1 &lt;= x &lt;= 10</t>
-  </si>
-  <si>
-    <t>ungültige Äquivalenzklasse Kleiner Eins: x &lt; 1</t>
-  </si>
-  <si>
-    <t>ungültige Äquivalenzklasse Größer 10: x &gt; 10</t>
+    <t>validTestCase: 1 &lt;= x &lt;= 10</t>
+  </si>
+  <si>
+    <t>greaterTestCase: x &gt; 10</t>
+  </si>
+  <si>
+    <t>nullAndLessTestCase: x &lt; 1</t>
   </si>
 </sst>
 </file>
@@ -1188,8 +1188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C2:F28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B15" zoomScale="176" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B12" zoomScale="176" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1369,7 +1369,7 @@
         <v>73</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E19" s="22">
         <v>0</v>
@@ -1383,7 +1383,7 @@
         <v>73</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E20" s="22">
         <v>14</v>
